--- a/Project No.2/real_estate_page_1.xlsx
+++ b/Project No.2/real_estate_page_1.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eli\Desktop\AllMyRepos\Web-Scraping-with-Beautiful-Soup-for-Data-Science\Project No.2\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24111987-08D3-4C98-9A17-3F31D96EE00D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="67">
   <si>
     <t>Title</t>
   </si>
@@ -28,127 +22,169 @@
     <t>Description</t>
   </si>
   <si>
+    <t>Bedrooms</t>
+  </si>
+  <si>
     <t>Prices</t>
   </si>
   <si>
+    <t>Condo in Downtown San Francisco-Union Square</t>
+  </si>
+  <si>
+    <t>Hotel room in San Francisco</t>
+  </si>
+  <si>
+    <t>Loft in Hayes Valley</t>
+  </si>
+  <si>
     <t>Guest suite in Mission District</t>
   </si>
   <si>
-    <t>Loft in Hayes Valley</t>
+    <t>Guest suite in Noe Valley</t>
+  </si>
+  <si>
+    <t>Hotel room in Marina District</t>
+  </si>
+  <si>
+    <t>Private room in Alamo Square</t>
+  </si>
+  <si>
+    <t>Apartment in Pacific Heights</t>
+  </si>
+  <si>
+    <t>Private room in Excelsior</t>
   </si>
   <si>
     <t>Hotel room in Downtown San Francisco-Union Square</t>
   </si>
   <si>
-    <t>Private room in Excelsior</t>
-  </si>
-  <si>
-    <t>Guest suite in Noe Valley</t>
-  </si>
-  <si>
     <t>Guest suite in Bernal Heights</t>
   </si>
   <si>
     <t>Private room in San Francisco</t>
   </si>
   <si>
-    <t>Apartment in Pacific Heights</t>
-  </si>
-  <si>
-    <t>Hotel room in San Francisco</t>
-  </si>
-  <si>
-    <t>Home in Haight Ashbury</t>
+    <t>Hotel room in Nob Hill</t>
   </si>
   <si>
     <t>Private room in South of Market</t>
   </si>
   <si>
-    <t>Private room in Alamo Square</t>
-  </si>
-  <si>
-    <t>Private room in Haight Ashbury</t>
-  </si>
-  <si>
     <t>Private room in Hayes Valley</t>
   </si>
   <si>
-    <t>Private room in Bernal Heights</t>
+    <t>Loft in Mission District</t>
+  </si>
+  <si>
+    <t>Apartment in Civic Center</t>
+  </si>
+  <si>
+    <t>Stunning *The Donatello* ST#1</t>
+  </si>
+  <si>
+    <t>La Monarca by Kasa | Weekly Stays Welcome! Nob Hil</t>
+  </si>
+  <si>
+    <t>Designer Loft + Historic Charm + Deck w/City View</t>
   </si>
   <si>
     <t>Mission Private 1BR/BA Garden Suite Separate Entry</t>
   </si>
   <si>
-    <t>Designer Loft + Historic Charm + Deck w/City View</t>
+    <t>Private Suite in Victorian Home</t>
+  </si>
+  <si>
+    <t>European Paradise in the Courtyard Free Parking</t>
+  </si>
+  <si>
+    <t>Spiritual sanctuary in a vibrant neighborhood</t>
+  </si>
+  <si>
+    <t>The Addison by Kasa | Modern Queen Studio</t>
+  </si>
+  <si>
+    <t>Private Room in San Francisco (A)</t>
   </si>
   <si>
     <t>2 Twin beds with a full bath</t>
   </si>
   <si>
-    <t>Private Room in San Francisco (A)</t>
-  </si>
-  <si>
-    <t>Private Suite in Victorian Home</t>
-  </si>
-  <si>
     <t>Delightful patio suite in sunny Bernal Heights</t>
   </si>
   <si>
     <t>Audrey &amp; Nick's Place</t>
   </si>
   <si>
+    <t>BARTLETT QUEEN</t>
+  </si>
+  <si>
     <t>1 Room in a 2 BR in quiet SF neighborhood</t>
   </si>
   <si>
-    <t>The Addison by Kasa | Traditional Queen Studio</t>
-  </si>
-  <si>
-    <t>La Monarca by Kasa | Weekly Stays Welcome! Nob Hil</t>
-  </si>
-  <si>
-    <t>Garden Retreat steps from Haight St</t>
-  </si>
-  <si>
     <t>Room in Elegant, Private, Serene House with Beautiful Furnishings</t>
   </si>
   <si>
+    <t>Modern Studio Minimal Living Maximum Lifestyle 206</t>
+  </si>
+  <si>
     <t>Bright Modern Private Soma Studio Street Entrance</t>
   </si>
   <si>
-    <t>Spiritual sanctuary in a vibrant neighborhood</t>
-  </si>
-  <si>
-    <t>Private Quiet Room</t>
-  </si>
-  <si>
-    <t>BARTLETT QUEEN</t>
-  </si>
-  <si>
-    <t>Relaxing Victorian room in SoMa, next to BART!</t>
-  </si>
-  <si>
     <t>A Victorian in Heart of SF  - Cable Car Rm</t>
   </si>
   <si>
-    <t>Room w/ Private Bath and Separate Entrance</t>
-  </si>
-  <si>
-    <t>Soak up the Botanical Vibe at a Garden Studio in Bernal</t>
+    <t>Super Clean Artist Loft above Sculpture Studio</t>
+  </si>
+  <si>
+    <t>Inn at the Opera&lt;&lt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>2 beds</t>
+  </si>
+  <si>
+    <t>1 king bed</t>
+  </si>
+  <si>
+    <t>1 bed</t>
+  </si>
+  <si>
+    <t>1 queen bed</t>
+  </si>
+  <si>
+    <t>1 double bed</t>
+  </si>
+  <si>
+    <t>2 single beds</t>
+  </si>
+  <si>
+    <t>$224 per night</t>
+  </si>
+  <si>
+    <t>$131 per night, originally $152</t>
+  </si>
+  <si>
+    <t>$290 per night, originally $325</t>
   </si>
   <si>
     <t>$290 per night</t>
   </si>
   <si>
-    <t>$287 per night, originally $321</t>
-  </si>
-  <si>
-    <t>$128 per night, originally $138</t>
+    <t>$251 per night</t>
+  </si>
+  <si>
+    <t>$201 per night, originally $220</t>
+  </si>
+  <si>
+    <t>$119 per night, originally $130</t>
+  </si>
+  <si>
+    <t>$235 per night, originally $253</t>
   </si>
   <si>
     <t>$72 per night</t>
   </si>
   <si>
-    <t>$261 per night</t>
+    <t>$138 per night, originally $149</t>
   </si>
   <si>
     <t>$249 per night</t>
@@ -157,47 +193,35 @@
     <t>$156 per night, originally $175</t>
   </si>
   <si>
-    <t>$120 per night</t>
-  </si>
-  <si>
-    <t>$274 per night, originally $305</t>
-  </si>
-  <si>
-    <t>$173 per night, originally $201</t>
-  </si>
-  <si>
-    <t>$296 per night</t>
+    <t>$134 per night, originally $186</t>
+  </si>
+  <si>
+    <t>$128 per night</t>
   </si>
   <si>
     <t>$145 per night</t>
   </si>
   <si>
-    <t>$156 per night, originally $168</t>
-  </si>
-  <si>
-    <t>$146 per night, originally $160</t>
+    <t>$162 per night, originally $207</t>
+  </si>
+  <si>
+    <t>$166 per night, originally $179</t>
   </si>
   <si>
     <t>$107 per night</t>
   </si>
   <si>
-    <t>$134 per night, originally $186</t>
-  </si>
-  <si>
-    <t>$152 per night</t>
-  </si>
-  <si>
-    <t>$97 per night</t>
-  </si>
-  <si>
-    <t>$167 per night</t>
+    <t>$240 per night</t>
+  </si>
+  <si>
+    <t>$151 per night</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,12 +233,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -264,59 +282,9 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{753D5630-83C3-4F8F-92CC-BC5891B58F4B}" name="Table1" displayName="Table1" ref="A1:C21" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:C21" xr:uid="{753D5630-83C3-4F8F-92CC-BC5891B58F4B}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{51F3B54B-FA82-4733-A741-89F779FA7F41}" name="Title"/>
-    <tableColumn id="2" xr3:uid="{9EA6FBA9-AD9F-4415-A459-847E4C0778B3}" name="Description"/>
-    <tableColumn id="3" xr3:uid="{D93961B2-2A9F-45B5-9CA2-8B574E11F4B6}" name="Prices"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -362,7 +330,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -394,27 +362,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -446,24 +396,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -639,23 +571,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="45" customWidth="1"/>
-    <col min="2" max="2" width="56.77734375" customWidth="1"/>
-    <col min="3" max="3" width="31.21875" customWidth="1"/>
-    <col min="4" max="4" width="21.6640625" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -665,232 +588,291 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="D2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="D3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="D4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="D5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="D6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="D12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="D13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="D14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="D15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="D16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="D17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="D18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="D19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="D20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>56</v>
+        <v>43</v>
+      </c>
+      <c r="D21" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>
--- a/Project No.2/real_estate_page_1.xlsx
+++ b/Project No.2/real_estate_page_1.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eli\Desktop\AllMyRepos\Web-Scraping-with-Beautiful-Soup-for-Data-Science\Project No.2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCC3ACCE-4AC8-48C0-BC83-8AB7D7C8C0B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -220,8 +226,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -282,9 +288,60 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CFACB2CB-3437-4443-A7FE-35DCFBAF575B}" name="Table1" displayName="Table1" ref="A1:D21" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:D21" xr:uid="{CFACB2CB-3437-4443-A7FE-35DCFBAF575B}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{F75F93B8-2996-4E11-9B32-0524D87EA126}" name="Title"/>
+    <tableColumn id="2" xr3:uid="{46569761-5BC2-4119-9116-B6CF979692BA}" name="Description"/>
+    <tableColumn id="3" xr3:uid="{D0D69CFF-85A0-4703-968C-E96E2C745EF7}" name="Bedrooms"/>
+    <tableColumn id="4" xr3:uid="{AC5AEEB1-5E93-417C-84BD-D70377950ABD}" name="Prices"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,7 +387,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -362,9 +419,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -396,6 +471,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -571,14 +664,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="49.88671875" customWidth="1"/>
+    <col min="2" max="2" width="49.44140625" customWidth="1"/>
+    <col min="3" max="3" width="30.21875" customWidth="1"/>
+    <col min="4" max="4" width="29.21875" customWidth="1"/>
+    <col min="5" max="5" width="30" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -592,7 +694,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -606,7 +708,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -620,7 +722,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -634,7 +736,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -648,7 +750,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -662,7 +764,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -676,7 +778,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -690,7 +792,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -704,7 +806,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -718,7 +820,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -732,7 +834,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -746,7 +848,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -760,7 +862,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -774,7 +876,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -788,7 +890,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -802,7 +904,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -816,7 +918,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -830,7 +932,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -844,7 +946,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -858,7 +960,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -874,5 +976,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>